--- a/WebScrapping/rottentomatoes.xlsx
+++ b/WebScrapping/rottentomatoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="397">
   <si>
     <t>tomatoscore</t>
   </si>
@@ -25,6 +25,9 @@
     <t>lengh</t>
   </si>
   <si>
+    <t>img_url</t>
+  </si>
+  <si>
     <t>original_title</t>
   </si>
   <si>
@@ -617,13 +620,598 @@
   </si>
   <si>
     <t>Transformers: Rise of the Beasts</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/kCULfWcKxjzYD2NweXkBdEzeLFC.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/atJxZfCaQ7kXRFSfbm8cqAKkns7.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/vi6VoqcsfmrwD0uXzyxXRsjcwU5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/nZ69WTv7n01womaNz3SHa4inA9x.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aCy61aU7BMG7SfhkaAaasS0KzUO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/5WCM2gGB0mGunbssHX7okAoEeUv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/94Gfu9vxUAVeL8EHc9toT9nGLkv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/v5CfpzxoJDkZxjZAizClFdlEF0U.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/97NPC9AI2FptBfJlMRN9psnvT13.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/hrATQE8ScQceohwInaMluluNEaf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/zr50kb04fTFcGfZTKFzbKTmQSiZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/hcuZ68ymJgohTerR8Oo1mb76SJv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/A7vFFZHbDyxfjuYKzJwruTnwwjT.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mbYQLLluS651W89jO7MOZcLSCUw.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fa23RPI5UmXqCUICdEFS8uFjUda.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aNlCqSfAV4BhHqaxmXdcaYM4iTF.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ewF3IlGscc7FjgGEPcQvZsAsgAW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/cmWTZj9zzT9KFt3XyL0gssL7Ig8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/soHjr03YMSe5uUMaEQEe1lC145O.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/d9nBoowhjiiYc4FBNtQkPY7c11H.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/3aJNiESDK7quCw9IpsUCFXqvq24.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mbigXpUgVgLOacgxlyFfsLRFqxQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/4hhd8JuwsHTvpqW9wW9oebsHVu0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/A1yymig7S0FTWv9cTtOwdI1cH5V.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/i3OgPuen3vi7UkAQCMZou2NkPUm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/8QVbWBv94BAT9u1q9uJccwOxMzt.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/oXHNdN1hjg6RFQ5NP618KSAIrdE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ey5j9PzI1S0jsMPuN8H9ldrGzuX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ae9ooWLtS4LEsSBCUvaFkrrxqiH.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yph9PAbmjYPvyvbeZvdYIhCZHEu.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/dbd7DQCHZ57SF4tM2puHtwNxDQD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ij8sapIEbLf2g8npOu6XgsQS2w0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yaX5hliSF1rwZ9WVNbUchndjFSb.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/z2nfRxZCGFgAnVhb9pZO87TyTX5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/n9qC2hL61IcVYEGyRonx6qakJWw.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/2dSZQGwijlXvMSyuGe0FSgrXnv0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/71XnRvkadkWZZowCGcuBi4XAKdJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/deOu3LDIbWtipp8vjCaszKz22LZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/jRXYjXNq0Cs2TcJjLkki24MLp7u.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7NhG3NClQ1xrc3kEwTiwFht5Y3L.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wfFE22EpiBOtN4qpTpxRDTXNodb.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/295gZzTXMvuiIG0U19h4M44PXxI.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/oadFpqhJ26yxqIlYcGioZ2W3EHN.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qmcKs0Aoft7MBdBoj1haZyPRgM2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/k36UzsRQaY6E055cdYPdYbyREer.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/62DJXEJbCazNo1woUU6Jr7l7rgQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/bE6XutmB6tcvzTHBx4JGJLlzouM.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fVzXp3NwovUlLe7fvoRynCmBPNc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fRHNCety8AHB38OUTBKSfg5fKcY.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/x5GR75CM0FbATtHjnAaE7WwUXkX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/62HCnUTziyWcpDaBO2i1DX17ljH.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/cJBVpO3Sm04U91nJFjIeWDiTQjX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fcOTYArjKuAgufwHoTvx8w9UKCv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/5N9ErU8bpfRRuJQFzDc4FRgdOD4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/dX7vIS0HfCIJ4l1VEBoSLs9DnLe.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/kIy8rzFTCFlEbW8L8tZ9ar81l6o.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/iyJM16EEF5jcQZipFjpRtEjeRyu.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/x3IkO2sW4rSSVluFDz8isr6YDm8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/pYPTCKsxIBwYjiywGEcGPnpS70n.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wvCvlxAxnlTV13yNIf4j7h7FqvQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/spkkTYZq38iyapjMy3CsxU5jK3s.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mYa1vhjTYakyNCB65lR8Y7jujBn.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gISoDEiaUH9BNEunmLC7FgUVaia.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/kWoWvS7qQpgRUe6op45a1FbkO8g.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mFukGiFZaVYoXIR8nrE95LlfbHG.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/g4yJTzMtOBUTAR2Qnmj8TYIcFVq.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/dabXVfrAFfhDte8XVemom3mTJog.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/w6Jz1AgjscqBuS8qXBd0wUHz5zC.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/3FPnDTlX0LsaU4VD5mc82BMbchA.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/raPPX7aRjqc33360tdadlzWDzo2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/vJUDoYNNKvBqbEPUskgvzPXGEFz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/uMMIeMVk1TCG3CZilpxbzFh0JKT.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/dTXXXMwZ30LVf51nJvh2QGKPIY6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/23oJaeBh0FDk2mQ2P240PU9Xxfh.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/sLw1gxPAvkqhp5XrdO2A50Q5lTW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ooWaKY6CgJVamHg1hnnNf4pl2xR.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/FiqBRypTDyHzqcxdbpPb3ddFep.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/eeUNWsdoiOijOZAMaWFDA5Pb1n8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yQTRmPzKAdLodknnPVtImm6FWPZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/boIgXXUhw5O3oVkhXsE6SJZkmYo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/tJgCmwkf2ytEHYHv8vH3QtRGVPW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gBBCBMXKzWRADtliUYfV69aVIcz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/rkHe0BfOo1f5N2q6rxgdYac7Zf6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/g7Ii9sYAFG96W7cvMQ4zXq39RJ5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/nxrmpkwVdmiVAiRTqSSC2SateN2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aT2vdnR3qifI21f7fHTqYW5iAAz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/A1Z4TjH3xqu4rHwAgLM3LX89luC.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qZUmMxJbGmkIYwnS7qRfSOREmvC.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7lK1qXVg7Gw80aEDyjw4Tx8qPor.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/3JysDbn3kZ1nc4a1yQgkg81KIdZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/rFljUdOozFEv6HDHIFpFvcYW0ec.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yGpJbft7JQpQHHHasRr4wWdVcuJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/4KXsKY8j87jr1oX2uwO1tMbl4Px.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/v4cqxZz2mHS0iyXvladOVltjJLQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/8fwJt0qZieQ7dKaiiqehObWpXYT.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/tlZGDi8anF7Fcs5HGVaTEMnv1hp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wd7b4Nv9QBHDTIjc2m7sr0IUMoh.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/iTP3mMw0AoqmScYzDoMmYeKxYe.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/247j36lEhkTGYTjFE3oWKVKMwVJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/i6HDYVK2qubLKtcjS1WtN8bch6c.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wYyoYAAMPWfPkYwLSrEcd5QpSBW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/v3QyboWRoA4O9RbcsqH8tJMe8EB.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yka6u5dbx1vWoMrNIHHutluaepp.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fJRt3mmZEvf8gQzoNLzjPtWpc9o.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aDTXsc8uzJuvPLvfFBXTf9rYyTf.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/8YHXvW1GWEcXAZXXSHfTsaGi4i2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yqI3XQ1nmvxFpBus1BescRrRBAj.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/omFn8Qkl5EPhT9h96Yp6EYNVBeK.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7uVyf7or5KxQfO2h0OrV1ZZ99WK.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/r7ZipEd9oHHVVXTcvbx3Sd3Tukv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/tbaTFgGIaTL1Uhd0SMob6Dhi5cK.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wQ53sO5n9LCFbssV3oQ4CuajL1L.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/wj7MGckCvs7qbIdL5lVXTIAtSH6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ywXcLxwAir7kj7mxDzxjOXDvl5u.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/4IjRR2OW2itjQWQnmlUzvwLz9DQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/t9XXivYtzap9TPNQ5CWskzh5agF.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mZj25JOdJ6M80Z8tU5BGezAyU1v.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/zQJcENHbZUpLQ8RKYt9wTzcXCwv.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ybHIXYgqqGuQWMfnYfkaL7lGR1z.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/o0UxfLtPJ7rN1lKyBMFwbw5ngNU.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/uznaVbYbfeW2t2KyqGk0ivh9wSO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/rmsP4F5tjuOpnHsQAPba6YjHDFq.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/iB64vpL3dIObOtMZgX3RqdVdQDc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gkTzYs4pTnX6Mtx2SN0fa6vja7I.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/bhozm1Mjn1bkfiwukK5EUj3ecfI.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aeJHkkrDvbXPB25NghNbv5kUBVi.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/725WE0Qb1BbUF7aGvjiQqzzffpg.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/77zENVKgbc4bhmlLfHRUbVZ99N5.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ifRFLx83Xk1DcwAS3OScgI6HmWO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/53VTzu0nhbNYmIbqdDbFqobsLHt.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/h5UzYZquMwO9FVn15R2eK2itmHu.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gHC0eFvXXNokP3sSNCTG2uks87R.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/e4M1YCKc07PeBoUs7ST2QgCiZFB.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/l1FfRmKRNXRSqXT5GlMo16MX2LX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/p3JX4YPcJOCPp8MSjL6mg7ZhHgA.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/85u2q8iUBDq2gj5iJrdD4lzckRq.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/deuqT4q8GS0hXvaSqi97tq3VvTc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gWfa1uahpIXlNkv7AMEvQt4VMde.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yMZdLhcbszstxmdOH4cuuMxaSM7.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gln0b5rezteLuyv9kO1q0h0vqnA.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/u8585nsrmZAW41JkhlhNTQZpfM0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/dHx5yuBb05U9vNaNhIBD7jWyxPk.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/l5wkjNOIZwRcPZvtOUagX5ubcTJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/nEufeZlyAOLqO2brrs0yeF1lgXO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/eIESpJgaGrAY1sABjBrBtgkd7hM.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/uMzOYHGiHEfknowTlg3o72gSvHy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/kjFDIlUCJkcpFxYKtE6OsGcAfQQ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gopGghuMtmdMviBcl9G0JfVB2RZ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/vzROjQbgKWMVf2EldXipCcjpuBL.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7M19SPS4iv5rP73fuUB1VF1eano.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ieyUpr5ES9QEz1cn4clCnBf9XJl.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/kxnmMvY0zUdYy8ntiZ8LCMekQTK.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/5oWB3hjzyECRBAjgWkmZinxl9qA.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qSOIsOdPMwPCirNVzdBgcPUYzm.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/mmvFokJgpFmNt522Hfpq3Zfs2Ra.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/8tuvxhScKT6qs8Js7ghLCLG5gxD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/sQN9v8dIkEYtrGhLULweNNKONHg.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/u49fzmIJHkb1H4oGFTXtBGgaUS1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qNAPgepJ4NHNA74ThVsxQEOUceJ.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/88sCL8OQMoieKpHClqRCCbcgH6w.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/zSKNXome5vmnBVQCmpWN8do7Bpa.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/nzYRAgaTx8b6BBai73WyOnxgIB9.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qUBOPVsMT9OgsUVqZWUBLkgYrb6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/jnWyZsaCl3Ke6u6ReSmBRO8S1rX.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/xTlAhTivEObHRFBKjAMVSyRQGv2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/1HdMUghqlgOIvbsU9ZtO40IPRzl.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/aWeKITRFbbwY8txG5uCj4rMCfSP.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/1MUFa3ZgAgjKvGtwO3qcMjKEGPF.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/scfQwUUe0MQb0T5khF1x5e4HSoR.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ArWn6gCi61b3b3hclD2L0LOk66k.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/fLxXvMcpsK8fGKguP3wZ7Urb2ao.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/uy3NhZq5IMw9c7vSoP2Z1GsQOJo.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/9PbtCo5IIkd26WPQfZUpPyn6fTz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qypGmqMTIT6PmDzmM3i2Aexaxug.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/nCbkOyOMTEwlEV0LtCOvCnwEONA.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/oUOBG41EQQXUc6P7Ay7f73yZxH8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yFjL4xFc6uxrfxBuZLei6L268SM.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/ocC1i2ea5R4N1bkJ2cQ7dEMT3Ki.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/s8B0GsFEebd0DW2spykLMxnc1Kn.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7iWfEm9VOeX8AAnC7F1ApxRDTfw.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/4I1hVy5PN8QcYIDWIMlnXo0QEsU.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/yD3VosOVW8WxPUzBDpEdzfv5pGx.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/2mRCD2Hn9eaeZszKc6AsFo0VAkM.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/iF5Hq9evr77NJUiPV3U25mZXmTj.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/2pxKwxMbd5l3BxK5fBgVCWYweH2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/7xP0NhjE6AOJ1RTx5vh3Jw1aNCe.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/5cWXJJsPRuz85zAK7XXmu9Vfdu2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/efuKHH9LqBZB67AS87kprLgaYO8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/8QQzSfs588vBG0Xe9wIIr5d2BaE.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/4HrdA8yAcZef8fw9qstzRz5NiLy.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/gCUFtTvjK4gbmjVxhx8bhyOhAeW.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/q6725aR8Zs4IwGMXzZT8aC8lh41.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/rEZMl8M5EKjPncmaBi6c0UEkAqz.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/vsX9gj7t56ZlMYKNYccskeW5adT.jpg</t>
+  </si>
+  <si>
+    <t>https://www.themoviedb.org/t/p/w94_and_h141_bestv2/qBcIUgJmDGrcAKbhRwCd6AmO0ZW.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +1226,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -672,16 +1267,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -974,15 +1575,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -993,10 +1594,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -1007,10 +1611,13 @@
       <c r="D2">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>95</v>
@@ -1021,10 +1628,13 @@
       <c r="D3">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1035,10 +1645,13 @@
       <c r="D4">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>84</v>
@@ -1049,15 +1662,21 @@
       <c r="D5">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>52</v>
@@ -1068,10 +1687,13 @@
       <c r="D7">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1082,30 +1704,45 @@
       <c r="D8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>43</v>
@@ -1116,15 +1753,21 @@
       <c r="D13">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>76</v>
@@ -1135,10 +1778,13 @@
       <c r="D15">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>89</v>
@@ -1149,20 +1795,29 @@
       <c r="D16">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -1173,10 +1828,13 @@
       <c r="D19">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>39</v>
@@ -1187,10 +1845,13 @@
       <c r="D20">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>93</v>
@@ -1201,20 +1862,29 @@
       <c r="D21">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>65</v>
@@ -1225,15 +1895,21 @@
       <c r="D24">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -1244,15 +1920,21 @@
       <c r="D26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>69</v>
@@ -1263,10 +1945,13 @@
       <c r="D28">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>79</v>
@@ -1277,10 +1962,13 @@
       <c r="D29">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>79</v>
@@ -1291,10 +1979,13 @@
       <c r="D30">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>72</v>
@@ -1305,10 +1996,13 @@
       <c r="D31">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>77</v>
@@ -1319,25 +2013,37 @@
       <c r="D32">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>89</v>
@@ -1348,10 +2054,13 @@
       <c r="D36">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>94</v>
@@ -1362,10 +2071,13 @@
       <c r="D37">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>63</v>
@@ -1376,15 +2088,21 @@
       <c r="D38">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>82</v>
@@ -1395,10 +2113,13 @@
       <c r="D40">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>90</v>
@@ -1409,10 +2130,13 @@
       <c r="D41">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>99</v>
@@ -1423,10 +2147,13 @@
       <c r="D42">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>67</v>
@@ -1437,25 +2164,37 @@
       <c r="D43">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>89</v>
@@ -1466,10 +2205,13 @@
       <c r="D47">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>27</v>
@@ -1480,15 +2222,21 @@
       <c r="D48">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>93</v>
@@ -1499,10 +2247,13 @@
       <c r="D50">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>60</v>
@@ -1513,10 +2264,13 @@
       <c r="D51">
         <v>83</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>92</v>
@@ -1527,10 +2281,13 @@
       <c r="D52">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>96</v>
@@ -1541,10 +2298,13 @@
       <c r="D53">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>83</v>
@@ -1555,10 +2315,13 @@
       <c r="D54">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>26</v>
@@ -1569,10 +2332,13 @@
       <c r="D55">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>57</v>
@@ -1583,10 +2349,13 @@
       <c r="D56">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>68</v>
@@ -1597,10 +2366,13 @@
       <c r="D57">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>27</v>
@@ -1611,10 +2383,13 @@
       <c r="D58">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>65</v>
@@ -1625,10 +2400,13 @@
       <c r="D59">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>97</v>
@@ -1639,15 +2417,21 @@
       <c r="D60">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>80</v>
@@ -1658,10 +2442,13 @@
       <c r="D62">
         <v>139</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>85</v>
@@ -1672,10 +2459,13 @@
       <c r="D63">
         <v>138</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>17</v>
@@ -1686,35 +2476,53 @@
       <c r="D64">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>29</v>
@@ -1725,10 +2533,13 @@
       <c r="D70">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>71</v>
@@ -1739,10 +2550,13 @@
       <c r="D71">
         <v>97</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>49</v>
@@ -1753,15 +2567,21 @@
       <c r="D72">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>34</v>
@@ -1772,10 +2592,13 @@
       <c r="D74">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>94</v>
@@ -1786,15 +2609,21 @@
       <c r="D75">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -1805,10 +2634,13 @@
       <c r="D77">
         <v>140</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>73</v>
@@ -1819,15 +2651,21 @@
       <c r="D78">
         <v>112</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>41</v>
@@ -1838,10 +2676,13 @@
       <c r="D80">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>42</v>
@@ -1852,10 +2693,13 @@
       <c r="D81">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>74</v>
@@ -1866,20 +2710,29 @@
       <c r="D82">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -1890,10 +2743,13 @@
       <c r="D85">
         <v>149</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>93</v>
@@ -1904,15 +2760,21 @@
       <c r="D86">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>69</v>
@@ -1923,15 +2785,21 @@
       <c r="D88">
         <v>122</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>56</v>
@@ -1942,10 +2810,13 @@
       <c r="D90">
         <v>189</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>63</v>
@@ -1956,25 +2827,37 @@
       <c r="D91">
         <v>107</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>72</v>
@@ -1985,10 +2868,13 @@
       <c r="D95">
         <v>105</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>72</v>
@@ -1999,10 +2885,13 @@
       <c r="D96">
         <v>106</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>50</v>
@@ -2013,15 +2902,21 @@
       <c r="D97">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>85</v>
@@ -2032,10 +2927,13 @@
       <c r="D99">
         <v>176</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>70</v>
@@ -2046,15 +2944,21 @@
       <c r="D100">
         <v>87</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>91</v>
@@ -2065,20 +2969,29 @@
       <c r="D102">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>83</v>
@@ -2089,20 +3002,29 @@
       <c r="D105">
         <v>130</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>80</v>
@@ -2113,20 +3035,29 @@
       <c r="D108">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>33</v>
@@ -2137,15 +3068,21 @@
       <c r="D111">
         <v>106</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>77</v>
@@ -2156,10 +3093,13 @@
       <c r="D113">
         <v>93</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>77</v>
@@ -2170,10 +3110,13 @@
       <c r="D114">
         <v>93</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>56</v>
@@ -2184,10 +3127,13 @@
       <c r="D115">
         <v>75</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>91</v>
@@ -2198,10 +3144,13 @@
       <c r="D116">
         <v>99</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>68</v>
@@ -2212,25 +3161,37 @@
       <c r="D117">
         <v>93</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>92</v>
@@ -2241,25 +3202,37 @@
       <c r="D121">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>82</v>
@@ -2270,25 +3243,37 @@
       <c r="D125">
         <v>161</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>48</v>
@@ -2299,10 +3284,13 @@
       <c r="D129">
         <v>105</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>95</v>
@@ -2313,10 +3301,13 @@
       <c r="D130">
         <v>100</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>54</v>
@@ -2327,10 +3318,13 @@
       <c r="D131">
         <v>126</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>33</v>
@@ -2341,15 +3335,21 @@
       <c r="D132">
         <v>97</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>57</v>
@@ -2360,10 +3360,13 @@
       <c r="D134">
         <v>86</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>10</v>
@@ -2374,10 +3377,13 @@
       <c r="D135">
         <v>127</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>32</v>
@@ -2388,15 +3394,21 @@
       <c r="D136">
         <v>77</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2407,15 +3419,21 @@
       <c r="D138">
         <v>88</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>67</v>
@@ -2426,20 +3444,29 @@
       <c r="D140">
         <v>105</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>77</v>
@@ -2450,30 +3477,45 @@
       <c r="D143">
         <v>101</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>19</v>
@@ -2484,20 +3526,29 @@
       <c r="D148">
         <v>105</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>46</v>
@@ -2508,10 +3559,13 @@
       <c r="D151">
         <v>142</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>71</v>
@@ -2522,10 +3576,13 @@
       <c r="D152">
         <v>124</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>71</v>
@@ -2536,20 +3593,29 @@
       <c r="D153">
         <v>77</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>88</v>
@@ -2560,20 +3626,29 @@
       <c r="D156">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>161</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>36</v>
@@ -2584,10 +3659,13 @@
       <c r="D159">
         <v>121</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>73</v>
@@ -2598,10 +3676,13 @@
       <c r="D160">
         <v>106</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -2612,10 +3693,13 @@
       <c r="D161">
         <v>89</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>41</v>
@@ -2626,10 +3710,13 @@
       <c r="D162">
         <v>116</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>84</v>
@@ -2640,10 +3727,13 @@
       <c r="D163">
         <v>139</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>84</v>
@@ -2654,10 +3744,13 @@
       <c r="D164">
         <v>153</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>78</v>
@@ -2668,10 +3761,13 @@
       <c r="D165">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>33</v>
@@ -2682,20 +3778,29 @@
       <c r="D166">
         <v>87</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>90</v>
@@ -2706,10 +3811,13 @@
       <c r="D169">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>72</v>
@@ -2720,15 +3828,21 @@
       <c r="D170">
         <v>110</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>71</v>
@@ -2739,25 +3853,37 @@
       <c r="D172">
         <v>149</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>178</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>49</v>
@@ -2768,10 +3894,13 @@
       <c r="D176">
         <v>88</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>81</v>
@@ -2782,10 +3911,13 @@
       <c r="D177">
         <v>96</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>72</v>
@@ -2796,10 +3928,13 @@
       <c r="D178">
         <v>165</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>44</v>
@@ -2810,10 +3945,13 @@
       <c r="D179">
         <v>112</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>35</v>
@@ -2824,15 +3962,21 @@
       <c r="D180">
         <v>86</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>184</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>86</v>
@@ -2843,10 +3987,13 @@
       <c r="D182">
         <v>97</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>76</v>
@@ -2857,15 +4004,21 @@
       <c r="D183">
         <v>146</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>96</v>
@@ -2876,15 +4029,21 @@
       <c r="D185">
         <v>131</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -2895,15 +4054,21 @@
       <c r="D187">
         <v>95</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>191</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>38</v>
@@ -2914,10 +4079,13 @@
       <c r="D189">
         <v>99</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>69</v>
@@ -2928,10 +4096,13 @@
       <c r="D190">
         <v>102</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>18</v>
@@ -2942,20 +4113,29 @@
       <c r="D191">
         <v>118</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>196</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>54</v>
@@ -2966,10 +4146,13 @@
       <c r="D194">
         <v>108</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>94</v>
@@ -2980,15 +4163,21 @@
       <c r="D195">
         <v>181</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>79</v>
@@ -2999,13 +4188,218 @@
       <c r="D197">
         <v>112</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E187" r:id="rId186"/>
+    <hyperlink ref="E188" r:id="rId187"/>
+    <hyperlink ref="E189" r:id="rId188"/>
+    <hyperlink ref="E190" r:id="rId189"/>
+    <hyperlink ref="E191" r:id="rId190"/>
+    <hyperlink ref="E192" r:id="rId191"/>
+    <hyperlink ref="E193" r:id="rId192"/>
+    <hyperlink ref="E194" r:id="rId193"/>
+    <hyperlink ref="E195" r:id="rId194"/>
+    <hyperlink ref="E196" r:id="rId195"/>
+    <hyperlink ref="E197" r:id="rId196"/>
+    <hyperlink ref="E198" r:id="rId197"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>